--- a/resources/book.xlsx
+++ b/resources/book.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zuoqin/dev/clojure/test1/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zuoqin/dev/clojure/commerce/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220"/>
+    <workbookView xWindow="10400" yWindow="500" windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="sell" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="347">
   <si>
     <t>Москва</t>
   </si>
@@ -198,13 +198,896 @@
   </si>
   <si>
     <t>https://www.cian.ru/sale/commercial/170080993/</t>
+  </si>
+  <si>
+    <t>ЮАО</t>
+  </si>
+  <si>
+    <t>Ореховый бульв., д. 31</t>
+  </si>
+  <si>
+    <t>Красногвардейская</t>
+  </si>
+  <si>
+    <t>от 5 до 10 минут пешком</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>Стандартная отделка</t>
+  </si>
+  <si>
+    <t>Возможен</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 967 248-45-58
++7 968 359-64-62</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/162248592/</t>
+  </si>
+  <si>
+    <t>ул. Домодедовская, д. 33</t>
+  </si>
+  <si>
+    <t>Домодедовская</t>
+  </si>
+  <si>
+    <t>от 10 до 15 минут пешком</t>
+  </si>
+  <si>
+    <t>Требуется косметический ремонт</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 916 494-42-14</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/170885106/</t>
+  </si>
+  <si>
+    <t>Ореховый бульв., д. 14, корп. 1</t>
+  </si>
+  <si>
+    <t>до 5 минут пешком</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 499 372-92-74</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/168528377/</t>
+  </si>
+  <si>
+    <t>ул. Братеевская, д. 23, корп. 1</t>
+  </si>
+  <si>
+    <t>Борисово</t>
+  </si>
+  <si>
+    <t>1/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 965 117-45-45</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/184063994/</t>
+  </si>
+  <si>
+    <t>ул. Борисовские Пруды, д. 18. корп. 1</t>
+  </si>
+  <si>
+    <t>1/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 916 638-46-21</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/158120455/</t>
+  </si>
+  <si>
+    <t>ул. Мусы Джалиля, д. 5, корп. 5</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/170884820/</t>
+  </si>
+  <si>
+    <t>ул. Борисовские Пруды, д. 46, корп. 2</t>
+  </si>
+  <si>
+    <t>Алма-Атинская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 916 678-56-38
++7 925 517-43-47</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/155213323/</t>
+  </si>
+  <si>
+    <t>ул. Борисовские Пруды, д. 6. корп. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 925 505-45-91</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/185467097/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гурьевский проезд, д. 27, корп. 2</t>
+  </si>
+  <si>
+    <t>Зябликово</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 919 775-01-01</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/169805863/</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>ул. Кантемировская, д. 4, корп. 1</t>
+  </si>
+  <si>
+    <t>Кантемировская</t>
+  </si>
+  <si>
+    <t>Требует косметического ремонта</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 499 110-87-06</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/163240163/</t>
+  </si>
+  <si>
+    <t>ЦАО</t>
+  </si>
+  <si>
+    <t>Между Садовым и Бульварным кольцом</t>
+  </si>
+  <si>
+    <t>ул. Б. Молчановка, 30/7с1</t>
+  </si>
+  <si>
+    <t>Смоленская</t>
+  </si>
+  <si>
+    <t>Нежилое</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>8-925-364-91-55</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/185033919/</t>
+  </si>
+  <si>
+    <t>Между Садовым и ТТК</t>
+  </si>
+  <si>
+    <t>1-й Смоленский пер., 5с1</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>8-903-776-58-17</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/182127351/</t>
+  </si>
+  <si>
+    <t>ул. Арбат, 6/2</t>
+  </si>
+  <si>
+    <t>Арбат</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>8-967-028-60-00</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/150200509/</t>
+  </si>
+  <si>
+    <t>ул. Арбат, 4с1</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>Люкс</t>
+  </si>
+  <si>
+    <t>8-915-413-63-83</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/183891056/</t>
+  </si>
+  <si>
+    <t>Внутри Бульварного кольца</t>
+  </si>
+  <si>
+    <t>ул. Б. Никитская, 22/2</t>
+  </si>
+  <si>
+    <t>8-925-324-33-64</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/149510728/</t>
+  </si>
+  <si>
+    <t>Никитский бульвар, 12</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>8-916-133-14-47</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/162610460/</t>
+  </si>
+  <si>
+    <t>ул. Композиторов, д. 17</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>8-926-737-83-39</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/149403400/</t>
+  </si>
+  <si>
+    <t>ул. Волхонка, 6</t>
+  </si>
+  <si>
+    <t>Боровицкая</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>8-929-668-09-63</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/185592666/</t>
+  </si>
+  <si>
+    <t>ул. Моховая, 11с13</t>
+  </si>
+  <si>
+    <t>Охотный ряд</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>Отдельный вход</t>
+  </si>
+  <si>
+    <t>8-926-986-72-96</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/185505692/</t>
+  </si>
+  <si>
+    <t>Между ТТК и ЧТК</t>
+  </si>
+  <si>
+    <t>Гагаринский пер. 35</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>8-905-766-00-01</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/187799531/</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Подольских Курсантов, 4Б</t>
+  </si>
+  <si>
+    <t>Пражская</t>
+  </si>
+  <si>
+    <t>Внутриквартально</t>
+  </si>
+  <si>
+    <t>Право аренды</t>
+  </si>
+  <si>
+    <t>Здание</t>
+  </si>
+  <si>
+    <t>7 (495) 134-69-88</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/prodam_pomeschenie_svobodnogo_naznacheniya_419.00_m_848978744</t>
+  </si>
+  <si>
+    <t>г. Москва, Варшавское шоссе , д.120</t>
+  </si>
+  <si>
+    <t>Чертановская</t>
+  </si>
+  <si>
+    <t>Превая линия крупной улицы</t>
+  </si>
+  <si>
+    <t>Без отделки</t>
+  </si>
+  <si>
+    <t>7 (499) 955-47-51</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/prodam_pomeschenie_svobodnogo_naznacheniya_275_m_1302576655</t>
+  </si>
+  <si>
+    <t>Москва, Чертановская ул., 36С1</t>
+  </si>
+  <si>
+    <t>7 (916) 494-42-14</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/178105152/</t>
+  </si>
+  <si>
+    <t>Москва, Загорьевский проезд, 1</t>
+  </si>
+  <si>
+    <t>Анино</t>
+  </si>
+  <si>
+    <t>Первая линия второстепенной улицы</t>
+  </si>
+  <si>
+    <t>7 (909) 989-10-77</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/156428223/</t>
+  </si>
+  <si>
+    <t>ЮЗАО</t>
+  </si>
+  <si>
+    <t>Москва, ул. Введенского, 13Б</t>
+  </si>
+  <si>
+    <t>Беляево</t>
+  </si>
+  <si>
+    <t>7 (926) 537-14-23</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/179834700/</t>
+  </si>
+  <si>
+    <t>г. Москва ул. Газопровод, д. 6 А</t>
+  </si>
+  <si>
+    <t>Улица Академика Янгеля</t>
+  </si>
+  <si>
+    <t>7 (929) 641-79-77; 7 (947) 079-96-85</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/169263583/</t>
+  </si>
+  <si>
+    <t>г.  Москва, ул. Луганская</t>
+  </si>
+  <si>
+    <t>Царицыно</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>7 (495) 785-81-15</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/torgovoe_pomeschenie_595_m_tsaritsyno_935962144</t>
+  </si>
+  <si>
+    <t>г. Москва, ул Красного Маяка, 15 Б</t>
+  </si>
+  <si>
+    <t>7 (916) 570-44-87</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/torgovoe_pomeschenie_778_m_1345525230</t>
+  </si>
+  <si>
+    <t>г. Москва, Кавказский бульвар вл. 29, стр 1</t>
+  </si>
+  <si>
+    <t>7 (495) 134-70-96</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/pomeschenie_svobodnogo_naznacheniya_207.4_m_1714036730</t>
+  </si>
+  <si>
+    <t>г. Москва, ул. Красного Маяка, 15</t>
+  </si>
+  <si>
+    <t>7 (495) 256-40-94; 7 (925) 324-33-64</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/169839918/</t>
+  </si>
+  <si>
+    <t>САО</t>
+  </si>
+  <si>
+    <t>Ленинградский просп., 44</t>
+  </si>
+  <si>
+    <t>Петровский парк</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>ПСН</t>
+  </si>
+  <si>
+    <t>+7 917 533-56-87
++7 495 258-52-23</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/181921016/</t>
+  </si>
+  <si>
+    <t>Хорошевское ш., 23К1</t>
+  </si>
+  <si>
+    <t>Полежаевская</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>+7 916 522-42-61</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/186029333/</t>
+  </si>
+  <si>
+    <t>ул. Острякова, 5</t>
+  </si>
+  <si>
+    <t>Аэропорт</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>+7 964 788-55-77
++7 985 887-78-88</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/154497342/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ул. Новопесчаная, 20/10к2</t>
+  </si>
+  <si>
+    <t>Сокол</t>
+  </si>
+  <si>
+    <t>Аренда</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>+7 926 227-74-62</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/182879867/</t>
+  </si>
+  <si>
+    <t>ул 1- я Магистральная, 22 к 1</t>
+  </si>
+  <si>
+    <t>Хорошёвская</t>
+  </si>
+  <si>
+    <t>Оборудование магазина (прилавки, кассы)</t>
+  </si>
+  <si>
+    <t>дополнительно использование подвального помещения 280 м2 - под хоз. нужды - отапливаемое</t>
+  </si>
+  <si>
+    <t>8 919 994-21-01</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-193821143</t>
+  </si>
+  <si>
+    <t>первый Волоколамский проезд дом 11к.1</t>
+  </si>
+  <si>
+    <t>Октябрьское поле</t>
+  </si>
+  <si>
+    <t>Отдельный вход с улицы</t>
+  </si>
+  <si>
+    <t>8 977 128-94-15</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-178831686</t>
+  </si>
+  <si>
+    <t>Квесисская 2-я, 23</t>
+  </si>
+  <si>
+    <t>Савёловская</t>
+  </si>
+  <si>
+    <t>8 800 100-49-95</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-253815287</t>
+  </si>
+  <si>
+    <t>ул. Красноармейская, 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>8 963 675-96-89</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-254721714</t>
+  </si>
+  <si>
+    <t>Зорге, 28</t>
+  </si>
+  <si>
+    <t>Банкротство</t>
+  </si>
+  <si>
+    <t>8 800 100-33-16</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-253870653</t>
+  </si>
+  <si>
+    <t>Маршала Бирюзова, 2</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/182105292/</t>
+  </si>
+  <si>
+    <t>ЗелАО</t>
+  </si>
+  <si>
+    <t>За пределами МКАД</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 1129</t>
+  </si>
+  <si>
+    <t>Пятницкое шоссе</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 903 741-20-89</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/186225652/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 338Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 903 585-44-88</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/155491450/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 1418</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 903 547-49-70</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/185634981/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, Матушкино, 4-й микрорайон</t>
+  </si>
+  <si>
+    <t>Не используется</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 903 753-75-72
++7 495 925-39-39</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/181181594/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 613</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 926 447-28-44</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/169395443/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 839</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 926 927-00-09</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/186979457/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 1436</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 985 769-87-86
++7 499 391-51-50</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/185916689/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 1416</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 926 922-77-72</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/187858601/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, корп. 931</t>
+  </si>
+  <si>
+    <t>+7 495 363-55-05</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/188741221/</t>
+  </si>
+  <si>
+    <t>г. Зеленоград, ул. Заводская, д. 4А</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 495 225-25-25
++7 962 920-11-77</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/181558318/</t>
+  </si>
+  <si>
+    <t>Между Садовым кольцом и ТТК</t>
+  </si>
+  <si>
+    <t>пер. Товарищеский, д. 8, стр. 2</t>
+  </si>
+  <si>
+    <t>Марксистская</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/184033508/</t>
+  </si>
+  <si>
+    <t>Между Садовым кольцом и Бульварным кольцом</t>
+  </si>
+  <si>
+    <t>ул. Земляной Вал, д. 38-40/15С9</t>
+  </si>
+  <si>
+    <t>Чкаловская</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/154196525/</t>
+  </si>
+  <si>
+    <t>наб. Гончарная, д. 3, стр. 5</t>
+  </si>
+  <si>
+    <t>Таганская</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-156230662</t>
+  </si>
+  <si>
+    <t>ул. Николоямская, д. 45, стр. 2</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/188753153/</t>
+  </si>
+  <si>
+    <t>пер. Посланников, д. 3, стр. 2</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/181707812/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шоссе Энтузиастов, д. 20 </t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/pomeschenie_svobodnogo_naznacheniya_27.5_m_1294874433</t>
+  </si>
+  <si>
+    <t>пер. Николоямский, д. 4/6</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/160637785/</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/pomeschenie_svobodnogo_naznacheniya_100.0_m_1119937311</t>
+  </si>
+  <si>
+    <t>ул. Земляной Вал, д. 36</t>
+  </si>
+  <si>
+    <t>https://www.domofond.ru/kommercheskayanedvizhimost-na-prodazhu-moskva-181474201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пл. Спартаковская, д. 14 </t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/pomeschenie_svobodnogo_naznacheniya_712_m_1567663595</t>
+  </si>
+  <si>
+    <t>уд. Донская, д. 9</t>
+  </si>
+  <si>
+    <t>Октябрьская</t>
+  </si>
+  <si>
+    <t>подвал/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 916 130-18-18</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/166602257/</t>
+  </si>
+  <si>
+    <t>Между Бульварным и Садовым кольцом</t>
+  </si>
+  <si>
+    <t>ул. Большая Полянка, д. 51А/9</t>
+  </si>
+  <si>
+    <t>Добрынинская</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 903 774-86-95</t>
+  </si>
+  <si>
+    <t>http://www.kvmeter.ru/objects/21324598/</t>
+  </si>
+  <si>
+    <t>ул. Шаболовка, д. 10</t>
+  </si>
+  <si>
+    <t>Шаболовская</t>
+  </si>
+  <si>
+    <t>1/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 926 630-97-04, +7 495 765-40-29</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/188563854/</t>
+  </si>
+  <si>
+    <t>пер. 1-й Спасоналивковский, д. 19</t>
+  </si>
+  <si>
+    <t>подвал/6</t>
+  </si>
+  <si>
+    <t>Отдельный вход со двора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 910 445-84-24</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/150752328/</t>
+  </si>
+  <si>
+    <t>пер. 2-й Павловский, д. 18</t>
+  </si>
+  <si>
+    <t>Тульская</t>
+  </si>
+  <si>
+    <t>Отдельный вход с фасада</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 965 409-33-83, +7 495 797-70-74</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/188529591/</t>
+  </si>
+  <si>
+    <t>ул. Люсиновская, д. 39, стр. 5</t>
+  </si>
+  <si>
+    <t>Серпуховская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 926 095-27-85</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/8334520/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Лестева, д. 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 925 290-43-42</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/pomeschenie_svobodnogo_naznacheniya_53.6_m_1266136489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ул. Якиманка Б., д. 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 499 372-08-41</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/moskva/kommercheskaya_nedvizhimost/prodam_pomeschenie_svobodnogo_naznacheniya_304_m_1027717566</t>
+  </si>
+  <si>
+    <t>ул. Шухова, д. 10</t>
+  </si>
+  <si>
+    <t>цоколь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 495 369-67-56</t>
+  </si>
+  <si>
+    <t>http://apeks-nedvizhimost.ru/object/913265</t>
+  </si>
+  <si>
+    <t>ул. Шаболовка, д. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +7 926 917-76-27</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/sale/commercial/177265699/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +1096,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +1122,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,18 +1150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="M63" workbookViewId="0">
+      <selection activeCell="M71" sqref="A71:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,7 +1461,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.83203125" bestFit="1" customWidth="1"/>
@@ -555,25 +1470,26 @@
     <col min="11" max="11" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33.1640625" customWidth="1"/>
     <col min="13" max="13" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="35" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="63.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="47" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="81" customWidth="1"/>
+    <col min="33" max="33" width="81" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -589,7 +1505,7 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
@@ -622,11 +1538,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="4">
         <v>1658.4</v>
       </c>
-      <c r="Q1">
-        <v>549.1</v>
+      <c r="Q1" s="7">
+        <v>10.1</v>
       </c>
       <c r="S1">
         <v>1109.3</v>
@@ -640,10 +1556,10 @@
       <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z1" t="s">
@@ -655,10 +1571,10 @@
       <c r="AB1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="5">
         <v>330000000</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="5">
         <v>198987</v>
       </c>
       <c r="AE1" t="s">
@@ -667,99 +1583,102 @@
       <c r="AF1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>750</v>
       </c>
-      <c r="S2" s="5">
+      <c r="Q2" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="S2" s="3">
         <v>750</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="3">
         <v>43344</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="W2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="5">
         <v>140000000</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="5">
         <v>186667</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -776,7 +1695,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F3" t="s">
@@ -809,8 +1728,11 @@
       <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>151</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>10.1</v>
       </c>
       <c r="S3">
         <v>151</v>
@@ -824,10 +1746,10 @@
       <c r="W3" t="s">
         <v>4</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z3" t="s">
@@ -839,10 +1761,10 @@
       <c r="AB3" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="5">
         <v>25000000</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
         <v>165563</v>
       </c>
       <c r="AE3" t="s">
@@ -851,7 +1773,7 @@
       <c r="AF3" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -868,7 +1790,7 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="s">
@@ -901,8 +1823,11 @@
       <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>720</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>10.1</v>
       </c>
       <c r="T4">
         <v>720</v>
@@ -916,10 +1841,10 @@
       <c r="W4" t="s">
         <v>4</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z4" t="s">
@@ -931,10 +1856,10 @@
       <c r="AB4" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="5">
         <v>129600000</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>180000</v>
       </c>
       <c r="AE4" t="s">
@@ -943,105 +1868,105 @@
       <c r="AF4" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>780</v>
       </c>
-      <c r="Q5" s="5">
-        <v>115</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="Q5" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="S5" s="3">
         <v>380</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="3">
         <v>285</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="5" t="s">
+      <c r="W5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AA5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="5">
         <v>155000000</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="5">
         <v>198718</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AG5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1058,7 +1983,7 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
@@ -1091,8 +2016,11 @@
       <c r="O6" t="s">
         <v>14</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>150</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>10.1</v>
       </c>
       <c r="S6">
         <v>150</v>
@@ -1106,10 +2034,10 @@
       <c r="W6" t="s">
         <v>4</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z6" t="s">
@@ -1121,10 +2049,10 @@
       <c r="AB6" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="5">
         <v>21000000</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>140000</v>
       </c>
       <c r="AE6" t="s">
@@ -1133,7 +2061,7 @@
       <c r="AF6" t="s">
         <v>43</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AG6" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1150,7 +2078,7 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
@@ -1183,8 +2111,11 @@
       <c r="O7" t="s">
         <v>14</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>412</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>10.1</v>
       </c>
       <c r="S7">
         <v>412</v>
@@ -1198,10 +2129,10 @@
       <c r="W7" t="s">
         <v>16</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z7" t="s">
@@ -1213,10 +2144,10 @@
       <c r="AB7" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="5">
         <v>85000000</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>206311</v>
       </c>
       <c r="AE7" t="s">
@@ -1225,7 +2156,7 @@
       <c r="AF7" t="s">
         <v>44</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1242,7 +2173,7 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
@@ -1275,8 +2206,11 @@
       <c r="O8" t="s">
         <v>14</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>692</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>10.1</v>
       </c>
       <c r="T8">
         <v>692</v>
@@ -1290,10 +2224,10 @@
       <c r="W8" t="s">
         <v>4</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z8" t="s">
@@ -1305,10 +2239,10 @@
       <c r="AB8" t="s">
         <v>36</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="5">
         <v>145320000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="5">
         <v>210000</v>
       </c>
       <c r="AE8" t="s">
@@ -1317,7 +2251,7 @@
       <c r="AF8" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1334,7 +2268,7 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
@@ -1367,8 +2301,11 @@
       <c r="O9" t="s">
         <v>14</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>1386</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>10.1</v>
       </c>
       <c r="R9">
         <v>1386</v>
@@ -1382,10 +2319,10 @@
       <c r="W9" t="s">
         <v>4</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Z9" t="s">
@@ -1397,10 +2334,10 @@
       <c r="AB9" t="s">
         <v>36</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="5">
         <v>159900000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="5">
         <v>115368</v>
       </c>
       <c r="AE9" t="s">
@@ -1409,103 +2346,6680 @@
       <c r="AF9" t="s">
         <v>44</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AG9" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>740</v>
       </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="R10" s="3">
         <v>740</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="5" t="s">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Y10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="5">
         <v>99000000</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="5">
         <v>133784</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG10" s="8" t="s">
+      <c r="AG10" s="6" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S11">
+        <v>32.4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>3900000</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>120370</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S12">
+        <v>56.6</v>
+      </c>
+      <c r="U12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>5750000</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>101590</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S13">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>6999999</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>116667</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="4">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S14">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
+        <v>77</v>
+      </c>
+      <c r="V14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>7800000</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>173333</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S15">
+        <v>68</v>
+      </c>
+      <c r="U15" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>7100000</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>104412</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="4">
+        <v>54.9</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S16">
+        <v>54.9</v>
+      </c>
+      <c r="U16" t="s">
+        <v>81</v>
+      </c>
+      <c r="V16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>5750000</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>104736</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="4">
+        <v>117.6</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S17">
+        <v>117.6</v>
+      </c>
+      <c r="U17" t="s">
+        <v>81</v>
+      </c>
+      <c r="V17" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>14750000</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>125425</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="4">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S18">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="U18" t="s">
+        <v>77</v>
+      </c>
+      <c r="V18" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>24990000</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>187613</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="4">
+        <v>112.6</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S19">
+        <v>112.6</v>
+      </c>
+      <c r="U19" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s">
+        <v>15</v>
+      </c>
+      <c r="W19" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>14725000</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>130773</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="S20">
+        <v>44.3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>72235</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="4">
+        <v>214</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8">
+        <v>214</v>
+      </c>
+      <c r="U21" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>50000000</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>233645</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="4">
+        <v>234</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8">
+        <v>234</v>
+      </c>
+      <c r="U22" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>67364750</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>287884</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="4">
+        <v>228</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8">
+        <v>228</v>
+      </c>
+      <c r="U23" t="s">
+        <v>118</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>68000000</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>298246</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8">
+        <v>115.5</v>
+      </c>
+      <c r="U24" t="s">
+        <v>122</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>42157500</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>365000</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="4">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8">
+        <v>103</v>
+      </c>
+      <c r="U25" t="s">
+        <v>118</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>291262</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" s="4">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
+        <v>136</v>
+      </c>
+      <c r="U26" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>43879570</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>322644</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="4">
+        <v>113.7</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8">
+        <v>113.7</v>
+      </c>
+      <c r="U27" t="s">
+        <v>135</v>
+      </c>
+      <c r="V27" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>54990000</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>483641</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="4">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8">
+        <v>160</v>
+      </c>
+      <c r="U28" t="s">
+        <v>140</v>
+      </c>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>437500</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="P29" s="4">
+        <v>368.5</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8">
+        <v>368.5</v>
+      </c>
+      <c r="U29" t="s">
+        <v>145</v>
+      </c>
+      <c r="V29" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>120000000</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>325645</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG29" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="4">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>233.5</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8">
+        <v>165</v>
+      </c>
+      <c r="U30" t="s">
+        <v>151</v>
+      </c>
+      <c r="V30" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" t="s">
+        <v>4</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>64950000</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>393636</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" t="s">
+        <v>158</v>
+      </c>
+      <c r="O31" t="s">
+        <v>107</v>
+      </c>
+      <c r="P31" s="4">
+        <v>419</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="S31">
+        <v>205.7</v>
+      </c>
+      <c r="T31">
+        <v>213.3</v>
+      </c>
+      <c r="U31">
+        <v>370</v>
+      </c>
+      <c r="V31" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>39000000</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>93079</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH31" s="4"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="4">
+        <v>275</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="S32">
+        <v>205.2</v>
+      </c>
+      <c r="T32">
+        <v>69.8</v>
+      </c>
+      <c r="U32">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="V32" t="s">
+        <v>145</v>
+      </c>
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>47000000</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>170909</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH32" s="4"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1383.1</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="S33">
+        <v>874</v>
+      </c>
+      <c r="T33">
+        <v>509.1</v>
+      </c>
+      <c r="U33">
+        <v>1000</v>
+      </c>
+      <c r="V33" t="s">
+        <v>145</v>
+      </c>
+      <c r="W33" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>175000000</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>126527</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH33" s="4"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" s="4">
+        <v>1050</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="S34">
+        <v>525</v>
+      </c>
+      <c r="T34">
+        <v>525</v>
+      </c>
+      <c r="U34">
+        <v>2500</v>
+      </c>
+      <c r="V34" t="s">
+        <v>145</v>
+      </c>
+      <c r="W34" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>80000000</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>76190</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH34" s="4"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>157</v>
+      </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" s="4">
+        <v>2353.1999999999998</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="R35">
+        <v>453</v>
+      </c>
+      <c r="S35">
+        <v>1364.2</v>
+      </c>
+      <c r="T35">
+        <v>536</v>
+      </c>
+      <c r="U35">
+        <v>3000</v>
+      </c>
+      <c r="V35" t="s">
+        <v>145</v>
+      </c>
+      <c r="W35" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>450000000</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>191229</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH35" s="4"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" t="s">
+        <v>107</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1323.5</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="R36">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="S36">
+        <v>796.2</v>
+      </c>
+      <c r="T36">
+        <v>368.5</v>
+      </c>
+      <c r="U36">
+        <v>2300</v>
+      </c>
+      <c r="V36" t="s">
+        <v>145</v>
+      </c>
+      <c r="W36" t="s">
+        <v>146</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>189999900</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>143559</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH36" s="4"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" s="4">
+        <v>616.5</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="R37">
+        <v>77.5</v>
+      </c>
+      <c r="S37">
+        <v>539</v>
+      </c>
+      <c r="V37" t="s">
+        <v>186</v>
+      </c>
+      <c r="W37" t="s">
+        <v>146</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>70000000</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>113544</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH37" s="4"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>157</v>
+      </c>
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>158</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="4">
+        <v>777.3</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="R38">
+        <v>119</v>
+      </c>
+      <c r="S38">
+        <v>285.3</v>
+      </c>
+      <c r="T38">
+        <v>373</v>
+      </c>
+      <c r="V38" t="s">
+        <v>145</v>
+      </c>
+      <c r="W38" t="s">
+        <v>34</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>50000000</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>64325</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH38" s="4"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>157</v>
+      </c>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" t="s">
+        <v>158</v>
+      </c>
+      <c r="O39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" s="4">
+        <v>207.4</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="R39">
+        <v>103.7</v>
+      </c>
+      <c r="S39">
+        <v>103.7</v>
+      </c>
+      <c r="V39" t="s">
+        <v>186</v>
+      </c>
+      <c r="W39" t="s">
+        <v>34</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>45000000</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>216972</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH39" s="4"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>157</v>
+      </c>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" t="s">
+        <v>158</v>
+      </c>
+      <c r="O40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" s="4">
+        <v>1559</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>171.9</v>
+      </c>
+      <c r="S40">
+        <v>935.4</v>
+      </c>
+      <c r="T40">
+        <v>623.6</v>
+      </c>
+      <c r="U40">
+        <v>2800</v>
+      </c>
+      <c r="V40" t="s">
+        <v>145</v>
+      </c>
+      <c r="W40" t="s">
+        <v>34</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>236000000</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>151379</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH40" s="4"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" t="s">
+        <v>14</v>
+      </c>
+      <c r="P41" s="4">
+        <v>449</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="U41" t="s">
+        <v>201</v>
+      </c>
+      <c r="V41" t="s">
+        <v>146</v>
+      </c>
+      <c r="W41" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>95000000</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>211581</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH41" s="4"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" t="s">
+        <v>14</v>
+      </c>
+      <c r="P42" s="4">
+        <v>110</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="U42" t="s">
+        <v>207</v>
+      </c>
+      <c r="V42" t="s">
+        <v>146</v>
+      </c>
+      <c r="W42" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>227273</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH42" s="4"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="4">
+        <v>153</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="U43" t="s">
+        <v>212</v>
+      </c>
+      <c r="V43" t="s">
+        <v>146</v>
+      </c>
+      <c r="W43" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>39800000</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>260131</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH43" s="4"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" t="s">
+        <v>217</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="4">
+        <v>367</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="U44" t="s">
+        <v>218</v>
+      </c>
+      <c r="V44" t="s">
+        <v>146</v>
+      </c>
+      <c r="W44" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>110000000</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>299728</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH44" s="4"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P45" s="4">
+        <v>415</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="U45" t="s">
+        <v>151</v>
+      </c>
+      <c r="V45" t="s">
+        <v>146</v>
+      </c>
+      <c r="W45" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>73500000</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>177108</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46" s="4">
+        <v>170</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="U46" t="s">
+        <v>151</v>
+      </c>
+      <c r="V46" t="s">
+        <v>229</v>
+      </c>
+      <c r="W46" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC46" s="4">
+        <v>28000000</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>164706</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH46" s="4"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" t="s">
+        <v>14</v>
+      </c>
+      <c r="P47" s="4">
+        <v>164</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="U47" t="s">
+        <v>212</v>
+      </c>
+      <c r="V47" t="s">
+        <v>229</v>
+      </c>
+      <c r="W47" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC47" s="4">
+        <v>27000000</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>164634</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH47" s="4"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>217</v>
+      </c>
+      <c r="K48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="s">
+        <v>237</v>
+      </c>
+      <c r="N48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" t="s">
+        <v>14</v>
+      </c>
+      <c r="P48" s="4">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="U48" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" t="s">
+        <v>229</v>
+      </c>
+      <c r="W48" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC48" s="4">
+        <v>35000000</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>175000</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH48" s="4"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>241</v>
+      </c>
+      <c r="K49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P49" s="4">
+        <v>464.3</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="U49" t="s">
+        <v>60</v>
+      </c>
+      <c r="V49" t="s">
+        <v>229</v>
+      </c>
+      <c r="W49" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC49" s="4">
+        <v>68252100</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>147000</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH49" s="4"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>13</v>
+      </c>
+      <c r="O50" t="s">
+        <v>14</v>
+      </c>
+      <c r="P50" s="4">
+        <v>443</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>351.4</v>
+      </c>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="U50" t="s">
+        <v>151</v>
+      </c>
+      <c r="V50" t="s">
+        <v>146</v>
+      </c>
+      <c r="W50" t="s">
+        <v>4</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>88600000</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>200000</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH50" s="4"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>13</v>
+      </c>
+      <c r="O51" t="s">
+        <v>14</v>
+      </c>
+      <c r="P51" s="4">
+        <v>39</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V51" t="s">
+        <v>34</v>
+      </c>
+      <c r="W51" t="s">
+        <v>4</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>3900000</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>100000</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG51" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" s="4">
+        <v>108</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>34</v>
+      </c>
+      <c r="W52" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>10300000</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>95370</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" t="s">
+        <v>4</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>2800000</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>97902</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG53" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" t="s">
+        <v>13</v>
+      </c>
+      <c r="O54" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>34</v>
+      </c>
+      <c r="W54" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>7100000</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>118333</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F55" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O55" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>15</v>
+      </c>
+      <c r="W55" t="s">
+        <v>4</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>68966</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+      <c r="K56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="N56" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V56" t="s">
+        <v>15</v>
+      </c>
+      <c r="W56" t="s">
+        <v>4</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>6990000</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>111840</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG56" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" t="s">
+        <v>13</v>
+      </c>
+      <c r="O57" t="s">
+        <v>14</v>
+      </c>
+      <c r="P57" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>15</v>
+      </c>
+      <c r="W57" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>3600000</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>125874</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG57" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58" s="4">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>15</v>
+      </c>
+      <c r="W58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>5200000</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>113043</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" t="s">
+        <v>249</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" t="s">
+        <v>13</v>
+      </c>
+      <c r="O59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P59" s="4">
+        <v>232</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>146</v>
+      </c>
+      <c r="W59" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>30000000</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>129310</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG59" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" t="s">
+        <v>13</v>
+      </c>
+      <c r="O60" t="s">
+        <v>14</v>
+      </c>
+      <c r="P60" s="4">
+        <v>150.4</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>15</v>
+      </c>
+      <c r="W60" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>15800000</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>105053</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG60" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="30" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>13</v>
+      </c>
+      <c r="O61" t="s">
+        <v>14</v>
+      </c>
+      <c r="P61" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="S61">
+        <v>1109.3</v>
+      </c>
+      <c r="U61" t="s">
+        <v>33</v>
+      </c>
+      <c r="V61" t="s">
+        <v>15</v>
+      </c>
+      <c r="W61" t="s">
+        <v>4</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>9250000</v>
+      </c>
+      <c r="AD61" s="5">
+        <v>303279</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG61" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P62" s="4">
+        <v>348.5</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="S62" s="3">
+        <v>750</v>
+      </c>
+      <c r="U62" s="3">
+        <v>43344</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>82600000</v>
+      </c>
+      <c r="AD62" s="5">
+        <v>237016</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG62" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F63" t="s">
+        <v>289</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>30</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" t="s">
+        <v>13</v>
+      </c>
+      <c r="O63" t="s">
+        <v>14</v>
+      </c>
+      <c r="P63" s="4">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="S63">
+        <v>151</v>
+      </c>
+      <c r="U63" s="1">
+        <v>42736</v>
+      </c>
+      <c r="V63" t="s">
+        <v>15</v>
+      </c>
+      <c r="W63" t="s">
+        <v>4</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>389610</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG63" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" t="s">
+        <v>13</v>
+      </c>
+      <c r="O64" t="s">
+        <v>14</v>
+      </c>
+      <c r="P64" s="4">
+        <v>200</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="T64">
+        <v>720</v>
+      </c>
+      <c r="U64" s="1">
+        <v>42401</v>
+      </c>
+      <c r="V64" t="s">
+        <v>15</v>
+      </c>
+      <c r="W64" t="s">
+        <v>4</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>28999990</v>
+      </c>
+      <c r="AD64" s="5">
+        <v>145000</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG64" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P65" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="S65" s="3">
+        <v>380</v>
+      </c>
+      <c r="T65" s="3">
+        <v>285</v>
+      </c>
+      <c r="U65" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>21799320</v>
+      </c>
+      <c r="AD65" s="5">
+        <v>216263</v>
+      </c>
+      <c r="AE65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG65" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" t="s">
+        <v>13</v>
+      </c>
+      <c r="O66" t="s">
+        <v>14</v>
+      </c>
+      <c r="P66" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="S66">
+        <v>150</v>
+      </c>
+      <c r="U66" s="2">
+        <v>43435</v>
+      </c>
+      <c r="V66" t="s">
+        <v>15</v>
+      </c>
+      <c r="W66" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC66" s="5">
+        <v>11000000</v>
+      </c>
+      <c r="AD66" s="5">
+        <v>400000</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG66" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" t="s">
+        <v>13</v>
+      </c>
+      <c r="O67" t="s">
+        <v>14</v>
+      </c>
+      <c r="P67" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="S67">
+        <v>412</v>
+      </c>
+      <c r="U67" s="2">
+        <v>43282</v>
+      </c>
+      <c r="V67" t="s">
+        <v>15</v>
+      </c>
+      <c r="W67" t="s">
+        <v>16</v>
+      </c>
+      <c r="X67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC67" s="5">
+        <v>16500000</v>
+      </c>
+      <c r="AD67" s="5">
+        <v>197605</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG67" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="T68">
+        <v>692</v>
+      </c>
+      <c r="U68" s="1">
+        <v>45323</v>
+      </c>
+      <c r="V68" t="s">
+        <v>34</v>
+      </c>
+      <c r="W68" t="s">
+        <v>4</v>
+      </c>
+      <c r="X68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC68" s="5">
+        <v>21900000</v>
+      </c>
+      <c r="AD68" s="5">
+        <v>219000</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG68" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" t="s">
+        <v>13</v>
+      </c>
+      <c r="O69" t="s">
+        <v>14</v>
+      </c>
+      <c r="P69" s="4">
+        <v>68</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="R69">
+        <v>1386</v>
+      </c>
+      <c r="U69" s="2">
+        <v>43435</v>
+      </c>
+      <c r="V69" t="s">
+        <v>15</v>
+      </c>
+      <c r="W69" t="s">
+        <v>4</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC69" s="5">
+        <v>17000000</v>
+      </c>
+      <c r="AD69" s="5">
+        <v>250000</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="4">
+        <v>71.2</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>35.5</v>
+      </c>
+      <c r="R70" s="3">
+        <v>740</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC70" s="5">
+        <v>14000000</v>
+      </c>
+      <c r="AD70" s="5">
+        <v>196629</v>
+      </c>
+      <c r="AE70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" t="s">
+        <v>13</v>
+      </c>
+      <c r="O71" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>40</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71" t="s">
+        <v>306</v>
+      </c>
+      <c r="V71" t="s">
+        <v>34</v>
+      </c>
+      <c r="W71" t="s">
+        <v>4</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC71" s="4">
+        <v>7500000</v>
+      </c>
+      <c r="AD71" s="4">
+        <v>137363</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F72" t="s">
+        <v>311</v>
+      </c>
+      <c r="G72" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" t="s">
+        <v>13</v>
+      </c>
+      <c r="O72" t="s">
+        <v>107</v>
+      </c>
+      <c r="P72" s="4">
+        <v>150</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>40</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>150</v>
+      </c>
+      <c r="U72" t="s">
+        <v>312</v>
+      </c>
+      <c r="V72" t="s">
+        <v>34</v>
+      </c>
+      <c r="W72" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>23000000</v>
+      </c>
+      <c r="AD72" s="4">
+        <v>153333</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG72" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F73" t="s">
+        <v>316</v>
+      </c>
+      <c r="G73" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
+        <v>30</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M73" t="s">
+        <v>12</v>
+      </c>
+      <c r="N73" t="s">
+        <v>13</v>
+      </c>
+      <c r="O73" t="s">
+        <v>107</v>
+      </c>
+      <c r="P73" s="4">
+        <v>168</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>40</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>168</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73" t="s">
+        <v>317</v>
+      </c>
+      <c r="V73" t="s">
+        <v>34</v>
+      </c>
+      <c r="W73" t="s">
+        <v>4</v>
+      </c>
+      <c r="X73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC73" s="4">
+        <v>25200000</v>
+      </c>
+      <c r="AD73" s="4">
+        <v>150000</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG73" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>309</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F74" t="s">
+        <v>305</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L74" t="s">
+        <v>11</v>
+      </c>
+      <c r="M74" t="s">
+        <v>12</v>
+      </c>
+      <c r="N74" t="s">
+        <v>13</v>
+      </c>
+      <c r="O74" t="s">
+        <v>14</v>
+      </c>
+      <c r="P74" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s">
+        <v>321</v>
+      </c>
+      <c r="V74" t="s">
+        <v>322</v>
+      </c>
+      <c r="W74" t="s">
+        <v>4</v>
+      </c>
+      <c r="X74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC74" s="4">
+        <v>8900000</v>
+      </c>
+      <c r="AD74" s="4">
+        <v>127143</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG74" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F75" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" t="s">
+        <v>13</v>
+      </c>
+      <c r="O75" t="s">
+        <v>107</v>
+      </c>
+      <c r="P75" s="4">
+        <v>154</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>40</v>
+      </c>
+      <c r="S75">
+        <v>154</v>
+      </c>
+      <c r="U75" t="s">
+        <v>60</v>
+      </c>
+      <c r="V75" t="s">
+        <v>327</v>
+      </c>
+      <c r="W75" t="s">
+        <v>4</v>
+      </c>
+      <c r="X75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y75" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC75" s="4">
+        <v>27000000</v>
+      </c>
+      <c r="AD75" s="4">
+        <v>175325</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG75" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F76" t="s">
+        <v>331</v>
+      </c>
+      <c r="G76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" t="s">
+        <v>13</v>
+      </c>
+      <c r="O76" t="s">
+        <v>107</v>
+      </c>
+      <c r="P76" s="4">
+        <v>286</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>40</v>
+      </c>
+      <c r="T76">
+        <v>286</v>
+      </c>
+      <c r="U76" t="s">
+        <v>108</v>
+      </c>
+      <c r="V76" t="s">
+        <v>34</v>
+      </c>
+      <c r="W76" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y76" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC76" s="4">
+        <v>26000000</v>
+      </c>
+      <c r="AD76" s="4">
+        <v>90909</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG76" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F77" t="s">
+        <v>316</v>
+      </c>
+      <c r="G77" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4</v>
+      </c>
+      <c r="L77" t="s">
+        <v>11</v>
+      </c>
+      <c r="M77" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O77" t="s">
+        <v>14</v>
+      </c>
+      <c r="P77" s="4">
+        <v>53.6</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>40</v>
+      </c>
+      <c r="S77">
+        <v>53.6</v>
+      </c>
+      <c r="U77" t="s">
+        <v>151</v>
+      </c>
+      <c r="V77" t="s">
+        <v>34</v>
+      </c>
+      <c r="W77" t="s">
+        <v>4</v>
+      </c>
+      <c r="X77" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC77" s="4">
+        <v>7650000</v>
+      </c>
+      <c r="AD77" s="4">
+        <v>142724</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG77" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>280</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F78" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O78" t="s">
+        <v>14</v>
+      </c>
+      <c r="P78" s="4">
+        <v>304</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>40</v>
+      </c>
+      <c r="S78">
+        <v>304</v>
+      </c>
+      <c r="U78" t="s">
+        <v>218</v>
+      </c>
+      <c r="V78" t="s">
+        <v>322</v>
+      </c>
+      <c r="W78" t="s">
+        <v>4</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC78" s="4">
+        <v>67200000</v>
+      </c>
+      <c r="AD78" s="4">
+        <v>221053</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG78" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F79" t="s">
+        <v>316</v>
+      </c>
+      <c r="G79" t="s">
+        <v>59</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" t="s">
+        <v>13</v>
+      </c>
+      <c r="O79" t="s">
+        <v>107</v>
+      </c>
+      <c r="P79" s="4">
+        <v>180</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>40</v>
+      </c>
+      <c r="R79">
+        <v>180</v>
+      </c>
+      <c r="U79" t="s">
+        <v>341</v>
+      </c>
+      <c r="V79" t="s">
+        <v>34</v>
+      </c>
+      <c r="W79" t="s">
+        <v>4</v>
+      </c>
+      <c r="X79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y79" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC79" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="AD79" s="4">
+        <v>138889</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG79" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F80" t="s">
+        <v>316</v>
+      </c>
+      <c r="G80" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" t="s">
+        <v>12</v>
+      </c>
+      <c r="N80" t="s">
+        <v>13</v>
+      </c>
+      <c r="O80" t="s">
+        <v>107</v>
+      </c>
+      <c r="P80" s="4">
+        <v>358</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>40</v>
+      </c>
+      <c r="S80">
+        <v>358</v>
+      </c>
+      <c r="U80" t="s">
+        <v>317</v>
+      </c>
+      <c r="V80" t="s">
+        <v>34</v>
+      </c>
+      <c r="W80" t="s">
+        <v>4</v>
+      </c>
+      <c r="X80" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC80" s="4">
+        <v>53700000</v>
+      </c>
+      <c r="AD80" s="4">
+        <v>150000</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG80" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AG64" r:id="rId1"/>
+    <hyperlink ref="AG65" r:id="rId2"/>
+    <hyperlink ref="AG66" r:id="rId3"/>
+    <hyperlink ref="AG67" r:id="rId4"/>
+    <hyperlink ref="AG68" r:id="rId5"/>
+    <hyperlink ref="AG69" r:id="rId6"/>
+    <hyperlink ref="AG70" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>